--- a/dmr-api/wwwroot/excelTemplate/IngredientTemplate.xlsx
+++ b/dmr-api/wwwroot/excelTemplate/IngredientTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sy.pham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dmr\dmr-api\wwwroot\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,23 +24,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>SupplierID</t>
-  </si>
-  <si>
-    <t>Chemical Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>Exprie After</t>
+  </si>
+  <si>
+    <t>Expired Time</t>
+  </si>
+  <si>
+    <t>Material#</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Ingredient Name</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>NANPAO</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SHC123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -48,15 +72,9 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -64,46 +82,49 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -111,67 +132,46 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -454,326 +454,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="16.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="3"/>
+    <col min="4" max="4" width="12.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="3"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="4"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="4"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="4"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="7"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="8"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="8"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="7"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="8"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="7"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="8"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="8"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="9"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="7"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="10"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="A41" s="8"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="7"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="7"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="8"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="8"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+      <c r="A47" s="8"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="8"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="8"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="8"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
+      <c r="A51" s="8"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="8"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="8"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A54" s="8"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
+      <c r="A55" s="8"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="A56" s="8"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="A57" s="8"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="8"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="8"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="8"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="8"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="8"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="8"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="8"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="8"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="A66" s="8"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
+      <c r="A67" s="8"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
+      <c r="A68" s="8"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
+      <c r="A69" s="8"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
+      <c r="A70" s="8"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
+      <c r="A71" s="8"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="8"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="8"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
+      <c r="A74" s="8"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
+      <c r="A75" s="8"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
+      <c r="A76" s="8"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="8"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
+      <c r="A78" s="8"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
+      <c r="A79" s="8"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
+      <c r="A80" s="8"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+      <c r="A81" s="7"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
+      <c r="A82" s="8"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+      <c r="A83" s="7"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
+      <c r="A84" s="8"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
+      <c r="A85" s="8"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
+      <c r="A86" s="11"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
+      <c r="A87" s="4"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+      <c r="A88" s="4"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+      <c r="A89" s="4"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
+      <c r="A90" s="8"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="4"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="4"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="4"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+      <c r="A94" s="4"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+      <c r="A95" s="4"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
+      <c r="A96" s="11"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
+      <c r="A97" s="4"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="7"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="7"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
+      <c r="A100" s="8"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
+      <c r="A101" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
